--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.8493397463712098</v>
+        <v>1.62336650943424</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1.297661622856752</v>
+        <v>1.488556683684069</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1.313617359090749</v>
+        <v>1.575631216401205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.8768703123610273</v>
+        <v>1.960225584628323</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.126506566211152</v>
+        <v>1.311769756366188</v>
       </c>
     </row>
   </sheetData>
